--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="108" windowWidth="22980" windowHeight="8940"/>
+    <workbookView xWindow="0" yWindow="168" windowWidth="22980" windowHeight="8880"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="76">
   <si>
     <t>Hero-BlackJack</t>
   </si>
@@ -135,40 +135,115 @@
     <t>Dat 1 la xuong, tat ca cac la khac bi huy</t>
   </si>
   <si>
-    <t>1 px</t>
-  </si>
-  <si>
-    <t>2 get</t>
-  </si>
-  <si>
-    <t>3 use</t>
-  </si>
-  <si>
     <t>moi khi mat mau, rut tren tay nguoi lam mat mau</t>
   </si>
   <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>Can auto</t>
-  </si>
-  <si>
-    <t>4 end</t>
-  </si>
-  <si>
-    <t>5 auto</t>
-  </si>
-  <si>
-    <t>6 use + not in turn</t>
-  </si>
-  <si>
-    <t>Hero-asdasd</t>
-  </si>
-  <si>
-    <t>cam 10 la</t>
-  </si>
-  <si>
     <t>Auto</t>
+  </si>
+  <si>
+    <t>la ro vo tac dung</t>
+  </si>
+  <si>
+    <t>Hero-ApacheKid</t>
+  </si>
+  <si>
+    <t>chon mat 1 mau de rut 2 la</t>
+  </si>
+  <si>
+    <t>Hero-ChuckWengam</t>
+  </si>
+  <si>
+    <t>1 lan trong luot co the bo 2 la de ban 1 nguoi</t>
+  </si>
+  <si>
+    <t>Hero-DocHolyday</t>
+  </si>
+  <si>
+    <t>rut 1 la trc mat nguoi choi thay vi rut bai``Hero-PatBrennan</t>
+  </si>
+  <si>
+    <t>Hero-PixiePete</t>
+  </si>
+  <si>
+    <t>Rut 3 la</t>
+  </si>
+  <si>
+    <t>moi khi nguoi khac bi giet dc hoi 2 mau</t>
+  </si>
+  <si>
+    <t>Hero-GregDigger</t>
+  </si>
+  <si>
+    <t>rut so la bang so nguoi choi +1, sau do chia cho moi nguoi 1 la</t>
+  </si>
+  <si>
+    <t>Hero-ClausTheSaint</t>
+  </si>
+  <si>
+    <t>Su dung beer hoi 2 mau</t>
+  </si>
+  <si>
+    <t>Hero-TequilaJoe</t>
+  </si>
+  <si>
+    <t>Hero-SeanMallory</t>
+  </si>
+  <si>
+    <t>Giu 10 la tren tay</t>
+  </si>
+  <si>
+    <t>moi khi su dung 1 la ko phai  trong luot dc rut 1 la</t>
+  </si>
+  <si>
+    <t>Hero-MollyStark</t>
+  </si>
+  <si>
+    <t>Moi khi nguoi khac bi giet dc rut 2 la</t>
+  </si>
+  <si>
+    <t>Hero-HerbHunter</t>
+  </si>
+  <si>
+    <t>Trong luot nhung la trc mat cua nguoi khac ko tac dung</t>
+  </si>
+  <si>
+    <t>Hero-BelleStar</t>
+  </si>
+  <si>
+    <t>Su dung bat ky la nao xem nhu miss</t>
+  </si>
+  <si>
+    <t>Hero-ElenaFuente</t>
+  </si>
+  <si>
+    <t>Hero-VeraCuster</t>
+  </si>
+  <si>
+    <t>Copy skill</t>
+  </si>
+  <si>
+    <t>Hero-BillNoface</t>
+  </si>
+  <si>
+    <t>rut 1 la, cong them 1 la cho moi mau' bi mat</t>
+  </si>
+  <si>
+    <t>px</t>
+  </si>
+  <si>
+    <t>gc</t>
+  </si>
+  <si>
+    <t>uc</t>
+  </si>
+  <si>
+    <t>bc</t>
+  </si>
+  <si>
+    <t>Hero-PatBrennan</t>
+  </si>
+  <si>
+    <t>rut 1 la trc mat nguoi choi thay vi rut bai`</t>
   </si>
 </sst>
 </file>
@@ -192,7 +267,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -215,13 +290,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -523,417 +612,549 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.21875" customWidth="1"/>
-    <col min="6" max="6" width="33.77734375" customWidth="1"/>
-    <col min="7" max="7" width="17.6640625" customWidth="1"/>
-    <col min="8" max="8" width="17.77734375" customWidth="1"/>
-    <col min="9" max="9" width="17.5546875" customWidth="1"/>
-    <col min="11" max="11" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.21875" customWidth="1"/>
+    <col min="4" max="4" width="47" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" customWidth="1"/>
+    <col min="6" max="6" width="17.77734375" customWidth="1"/>
+    <col min="7" max="7" width="17.5546875" customWidth="1"/>
+    <col min="9" max="9" width="15.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="E4" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E11" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D33" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E33" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G1" s="1"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1">
-        <v>1</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>2</v>
-      </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>3</v>
-      </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>3</v>
-      </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>2</v>
-      </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>3</v>
-      </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>2</v>
-      </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>1</v>
-      </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>5</v>
-      </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>2</v>
-      </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>5</v>
-      </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>3</v>
-      </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>3</v>
-      </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>3</v>
-      </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>3</v>
-      </c>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>3</v>
-      </c>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>3</v>
-      </c>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <v>3</v>
-      </c>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>48</v>
-      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="3"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
     </row>
   </sheetData>
-  <sortState ref="E1:G23">
-    <sortCondition ref="F1"/>
+  <sortState ref="B1:E37">
+    <sortCondition ref="B16"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -956,12 +1177,284 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B34"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B24" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B26" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B27" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B28" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B29" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B30" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B31" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B32" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B33" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B34" t="s">
+        <v>68</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>